--- a/rearend/scripts/student.xlsx
+++ b/rearend/scripts/student.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\collegeThree\软件过程管理与分析\OpenProjectSystem\rearend\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DA2FBC-6717-4EA4-9A9F-C8842F903578}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF1D524-FF1E-4DE4-B3C3-E973443443F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>17041202</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +80,234 @@
   </si>
   <si>
     <t>17857680092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051235</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051324</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051409</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17220603</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17081407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051328</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051408</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17081822</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17081804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17181209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17051410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许靖</t>
+  </si>
+  <si>
+    <t>郑锦彪</t>
+  </si>
+  <si>
+    <t>周子威﻿</t>
+  </si>
+  <si>
+    <t>张琦琦</t>
+  </si>
+  <si>
+    <t>﻿冯鼎</t>
+  </si>
+  <si>
+    <t>宋良拓</t>
+  </si>
+  <si>
+    <t>孙鑫岩</t>
+  </si>
+  <si>
+    <t>汪瑜</t>
+  </si>
+  <si>
+    <t>王浩男</t>
+  </si>
+  <si>
+    <t>张锦芳</t>
+  </si>
+  <si>
+    <t>陈宁焕</t>
+  </si>
+  <si>
+    <t>陈一昕</t>
+  </si>
+  <si>
+    <t>封兴东</t>
+  </si>
+  <si>
+    <t>冯文超</t>
+  </si>
+  <si>
+    <t>李元及</t>
+  </si>
+  <si>
+    <t>邸千卉</t>
+  </si>
+  <si>
+    <t>袁梦逸</t>
+  </si>
+  <si>
+    <t>卯升获</t>
+  </si>
+  <si>
+    <t>许鑫炜</t>
+  </si>
+  <si>
+    <t>吴昊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15382354626</t>
+  </si>
+  <si>
+    <t>13777840219</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13588828683</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777802872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777838499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777862652</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17367078858</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17364520490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777802472</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17816123612</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777838614</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15167590660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17376571919</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18757501304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777823559</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17816125260</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17367079678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17376552626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13777828750</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18867145726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>male</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,19 +330,67 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFDADBDA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFDADBDA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFDADBDA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFDADBDA"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -121,9 +399,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -404,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -441,43 +738,443 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
